--- a/data_daily_hourly.xlsx
+++ b/data_daily_hourly.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>close_hourly</t>
+    <t>close</t>
   </si>
   <si>
-    <t>close_daily</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>tick_volume</t>
   </si>
 </sst>
 </file>
@@ -386,16 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,2114 +399,2202 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45330.16666666666</v>
+        <v>45349.66666666666</v>
       </c>
       <c r="B2">
-        <v>1.07777</v>
+        <v>1.08499</v>
       </c>
       <c r="C2">
-        <v>1.07721</v>
+        <v>25757</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45330.33333333334</v>
+        <v>45349.83333333334</v>
       </c>
       <c r="B3">
-        <v>1.07818</v>
+        <v>1.08429</v>
       </c>
       <c r="C3">
-        <v>1.07721</v>
+        <v>12656</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45330.5</v>
+        <v>45350</v>
       </c>
       <c r="B4">
-        <v>1.07822</v>
+        <v>1.08384</v>
       </c>
       <c r="C4">
-        <v>1.07721</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45330.66666666666</v>
+        <v>45350.16666666666</v>
       </c>
       <c r="B5">
-        <v>1.07431</v>
+        <v>1.0826</v>
       </c>
       <c r="C5">
-        <v>1.07721</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45330.83333333334</v>
+        <v>45350.33333333334</v>
       </c>
       <c r="B6">
-        <v>1.07726</v>
+        <v>1.07991</v>
       </c>
       <c r="C6">
-        <v>1.07721</v>
+        <v>23415</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45331</v>
+        <v>45350.5</v>
       </c>
       <c r="B7">
-        <v>1.07766</v>
+        <v>1.08271</v>
       </c>
       <c r="C7">
-        <v>1.07721</v>
+        <v>25730</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45331.16666666666</v>
+        <v>45350.66666666666</v>
       </c>
       <c r="B8">
-        <v>1.07734</v>
+        <v>1.08374</v>
       </c>
       <c r="C8">
-        <v>1.07766</v>
+        <v>26765</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45331.33333333334</v>
+        <v>45350.83333333334</v>
       </c>
       <c r="B9">
-        <v>1.07702</v>
+        <v>1.08357</v>
       </c>
       <c r="C9">
-        <v>1.07766</v>
+        <v>10412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45331.5</v>
+        <v>45351</v>
       </c>
       <c r="B10">
-        <v>1.07663</v>
+        <v>1.0828</v>
       </c>
       <c r="C10">
-        <v>1.07766</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45331.66666666666</v>
+        <v>45351.16666666666</v>
       </c>
       <c r="B11">
-        <v>1.07822</v>
+        <v>1.08349</v>
       </c>
       <c r="C11">
-        <v>1.07766</v>
+        <v>11869</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45331.83333333334</v>
+        <v>45351.33333333334</v>
       </c>
       <c r="B12">
-        <v>1.07847</v>
+        <v>1.08499</v>
       </c>
       <c r="C12">
-        <v>1.07766</v>
+        <v>22851</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45332</v>
+        <v>45351.5</v>
       </c>
       <c r="B13">
-        <v>1.07825</v>
+        <v>1.08371</v>
       </c>
       <c r="C13">
-        <v>1.07766</v>
+        <v>28411</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45334.16666666666</v>
+        <v>45351.66666666666</v>
       </c>
       <c r="B14">
-        <v>1.07948</v>
+        <v>1.07991</v>
       </c>
       <c r="C14">
-        <v>1.07825</v>
+        <v>32417</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45334.33333333334</v>
+        <v>45351.83333333334</v>
       </c>
       <c r="B15">
-        <v>1.07908</v>
+        <v>1.08024</v>
       </c>
       <c r="C15">
-        <v>1.07825</v>
+        <v>14884</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45334.5</v>
+        <v>45352</v>
       </c>
       <c r="B16">
-        <v>1.07683</v>
+        <v>1.08205</v>
       </c>
       <c r="C16">
-        <v>1.07825</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45334.66666666666</v>
+        <v>45352.16666666666</v>
       </c>
       <c r="B17">
-        <v>1.07628</v>
+        <v>1.08111</v>
       </c>
       <c r="C17">
-        <v>1.07825</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45334.83333333334</v>
+        <v>45352.33333333334</v>
       </c>
       <c r="B18">
-        <v>1.07816</v>
+        <v>1.08146</v>
       </c>
       <c r="C18">
-        <v>1.07825</v>
+        <v>18858</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45335</v>
+        <v>45352.5</v>
       </c>
       <c r="B19">
-        <v>1.07702</v>
+        <v>1.0812</v>
       </c>
       <c r="C19">
-        <v>1.07825</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45335.16666666666</v>
+        <v>45352.66666666666</v>
       </c>
       <c r="B20">
-        <v>1.07659</v>
+        <v>1.08367</v>
       </c>
       <c r="C20">
-        <v>1.07702</v>
+        <v>29630</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45335.33333333334</v>
+        <v>45352.83333333334</v>
       </c>
       <c r="B21">
-        <v>1.07658</v>
+        <v>1.08378</v>
       </c>
       <c r="C21">
-        <v>1.07702</v>
+        <v>12616</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45335.5</v>
+        <v>45355</v>
       </c>
       <c r="B22">
-        <v>1.0766</v>
+        <v>1.08392</v>
       </c>
       <c r="C22">
-        <v>1.07702</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45335.66666666666</v>
+        <v>45355.16666666666</v>
       </c>
       <c r="B23">
-        <v>1.07078</v>
+        <v>1.08434</v>
       </c>
       <c r="C23">
-        <v>1.07702</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45335.83333333334</v>
+        <v>45355.33333333334</v>
       </c>
       <c r="B24">
-        <v>1.07144</v>
+        <v>1.08484</v>
       </c>
       <c r="C24">
-        <v>1.07702</v>
+        <v>24486</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45336</v>
+        <v>45355.5</v>
       </c>
       <c r="B25">
-        <v>1.07076</v>
+        <v>1.08479</v>
       </c>
       <c r="C25">
-        <v>1.07702</v>
+        <v>20275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45336.16666666666</v>
+        <v>45355.66666666666</v>
       </c>
       <c r="B26">
-        <v>1.07106</v>
+        <v>1.0857</v>
       </c>
       <c r="C26">
-        <v>1.07076</v>
+        <v>26597</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45336.33333333334</v>
+        <v>45355.83333333334</v>
       </c>
       <c r="B27">
-        <v>1.0713</v>
+        <v>1.08539</v>
       </c>
       <c r="C27">
-        <v>1.07076</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45336.5</v>
+        <v>45356</v>
       </c>
       <c r="B28">
-        <v>1.06995</v>
+        <v>1.08485</v>
       </c>
       <c r="C28">
-        <v>1.07076</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45336.66666666666</v>
+        <v>45356.16666666666</v>
       </c>
       <c r="B29">
-        <v>1.07079</v>
+        <v>1.08519</v>
       </c>
       <c r="C29">
-        <v>1.07076</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45336.83333333334</v>
+        <v>45356.33333333334</v>
       </c>
       <c r="B30">
-        <v>1.07298</v>
+        <v>1.08506</v>
       </c>
       <c r="C30">
-        <v>1.07076</v>
+        <v>22574</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45337</v>
+        <v>45356.5</v>
       </c>
       <c r="B31">
-        <v>1.07257</v>
+        <v>1.08454</v>
       </c>
       <c r="C31">
-        <v>1.07076</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45337.16666666666</v>
+        <v>45356.66666666666</v>
       </c>
       <c r="B32">
-        <v>1.07273</v>
+        <v>1.0859</v>
       </c>
       <c r="C32">
-        <v>1.07257</v>
+        <v>29183</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45337.33333333334</v>
+        <v>45356.83333333334</v>
       </c>
       <c r="B33">
-        <v>1.0728</v>
+        <v>1.08545</v>
       </c>
       <c r="C33">
-        <v>1.07257</v>
+        <v>15527</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45337.5</v>
+        <v>45357</v>
       </c>
       <c r="B34">
-        <v>1.07323</v>
+        <v>1.08429</v>
       </c>
       <c r="C34">
-        <v>1.07257</v>
+        <v>7711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45337.66666666666</v>
+        <v>45357.16666666666</v>
       </c>
       <c r="B35">
-        <v>1.07654</v>
+        <v>1.08541</v>
       </c>
       <c r="C35">
-        <v>1.07257</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45337.83333333334</v>
+        <v>45357.33333333334</v>
       </c>
       <c r="B36">
-        <v>1.07617</v>
+        <v>1.08757</v>
       </c>
       <c r="C36">
-        <v>1.07257</v>
+        <v>21077</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45338</v>
+        <v>45357.5</v>
       </c>
       <c r="B37">
-        <v>1.07715</v>
+        <v>1.08841</v>
       </c>
       <c r="C37">
-        <v>1.07257</v>
+        <v>23249</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45338.16666666666</v>
+        <v>45357.66666666666</v>
       </c>
       <c r="B38">
-        <v>1.07639</v>
+        <v>1.09015</v>
       </c>
       <c r="C38">
-        <v>1.07715</v>
+        <v>35077</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45338.33333333334</v>
+        <v>45357.83333333334</v>
       </c>
       <c r="B39">
-        <v>1.07593</v>
+        <v>1.0896</v>
       </c>
       <c r="C39">
-        <v>1.07715</v>
+        <v>18850</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45338.5</v>
+        <v>45358</v>
       </c>
       <c r="B40">
-        <v>1.07651</v>
+        <v>1.08969</v>
       </c>
       <c r="C40">
-        <v>1.07715</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45338.66666666666</v>
+        <v>45358.16666666666</v>
       </c>
       <c r="B41">
-        <v>1.07452</v>
+        <v>1.08994</v>
       </c>
       <c r="C41">
-        <v>1.07715</v>
+        <v>9788</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45338.83333333334</v>
+        <v>45358.33333333334</v>
       </c>
       <c r="B42">
-        <v>1.07771</v>
+        <v>1.09008</v>
       </c>
       <c r="C42">
-        <v>1.07715</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45339</v>
+        <v>45358.5</v>
       </c>
       <c r="B43">
-        <v>1.07744</v>
+        <v>1.08714</v>
       </c>
       <c r="C43">
-        <v>1.07715</v>
+        <v>25202</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45341.16666666666</v>
+        <v>45358.66666666666</v>
       </c>
       <c r="B44">
-        <v>1.07793</v>
+        <v>1.09361</v>
       </c>
       <c r="C44">
-        <v>1.07744</v>
+        <v>33436</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45341.33333333334</v>
+        <v>45358.83333333334</v>
       </c>
       <c r="B45">
-        <v>1.07808</v>
+        <v>1.0947</v>
       </c>
       <c r="C45">
-        <v>1.07744</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45341.5</v>
+        <v>45359</v>
       </c>
       <c r="B46">
-        <v>1.0774</v>
+        <v>1.09471</v>
       </c>
       <c r="C46">
-        <v>1.07744</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45341.66666666666</v>
+        <v>45359.16666666666</v>
       </c>
       <c r="B47">
-        <v>1.07692</v>
+        <v>1.09455</v>
       </c>
       <c r="C47">
-        <v>1.07744</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45341.83333333334</v>
+        <v>45359.33333333334</v>
       </c>
       <c r="B48">
-        <v>1.07753</v>
+        <v>1.09345</v>
       </c>
       <c r="C48">
-        <v>1.07744</v>
+        <v>22747</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45342</v>
+        <v>45359.5</v>
       </c>
       <c r="B49">
-        <v>1.07789</v>
+        <v>1.09572</v>
       </c>
       <c r="C49">
-        <v>1.07744</v>
+        <v>27028</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45342.16666666666</v>
+        <v>45359.66666666666</v>
       </c>
       <c r="B50">
-        <v>1.0765</v>
+        <v>1.09384</v>
       </c>
       <c r="C50">
-        <v>1.07789</v>
+        <v>35083</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45342.33333333334</v>
+        <v>45359.83333333334</v>
       </c>
       <c r="B51">
-        <v>1.0767</v>
+        <v>1.09372</v>
       </c>
       <c r="C51">
-        <v>1.07789</v>
+        <v>13761</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45342.5</v>
+        <v>45362</v>
       </c>
       <c r="B52">
-        <v>1.07968</v>
+        <v>1.09396</v>
       </c>
       <c r="C52">
-        <v>1.07789</v>
+        <v>11903</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45342.66666666666</v>
+        <v>45362.16666666666</v>
       </c>
       <c r="B53">
-        <v>1.08223</v>
+        <v>1.09403</v>
       </c>
       <c r="C53">
-        <v>1.07789</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45342.83333333334</v>
+        <v>45362.33333333334</v>
       </c>
       <c r="B54">
-        <v>1.08109</v>
+        <v>1.09336</v>
       </c>
       <c r="C54">
-        <v>1.07789</v>
+        <v>18517</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45343</v>
+        <v>45362.5</v>
       </c>
       <c r="B55">
-        <v>1.08062</v>
+        <v>1.09189</v>
       </c>
       <c r="C55">
-        <v>1.07789</v>
+        <v>20461</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45343.16666666666</v>
+        <v>45362.66666666666</v>
       </c>
       <c r="B56">
-        <v>1.08111</v>
+        <v>1.09243</v>
       </c>
       <c r="C56">
-        <v>1.08062</v>
+        <v>23430</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45343.33333333334</v>
+        <v>45362.83333333334</v>
       </c>
       <c r="B57">
-        <v>1.08142</v>
+        <v>1.09239</v>
       </c>
       <c r="C57">
-        <v>1.08062</v>
+        <v>10937</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45343.5</v>
+        <v>45363</v>
       </c>
       <c r="B58">
-        <v>1.07988</v>
+        <v>1.09325</v>
       </c>
       <c r="C58">
-        <v>1.08062</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45343.66666666666</v>
+        <v>45363.16666666666</v>
       </c>
       <c r="B59">
-        <v>1.08093</v>
+        <v>1.09374</v>
       </c>
       <c r="C59">
-        <v>1.08062</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45343.83333333334</v>
+        <v>45363.33333333334</v>
       </c>
       <c r="B60">
-        <v>1.08067</v>
+        <v>1.09295</v>
       </c>
       <c r="C60">
-        <v>1.08062</v>
+        <v>20229</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45344</v>
+        <v>45363.5</v>
       </c>
       <c r="B61">
-        <v>1.08153</v>
+        <v>1.09099</v>
       </c>
       <c r="C61">
-        <v>1.08062</v>
+        <v>31315</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45344.16666666666</v>
+        <v>45363.66666666666</v>
       </c>
       <c r="B62">
-        <v>1.08259</v>
+        <v>1.09184</v>
       </c>
       <c r="C62">
-        <v>1.08153</v>
+        <v>23664</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45344.33333333334</v>
+        <v>45363.83333333334</v>
       </c>
       <c r="B63">
-        <v>1.08324</v>
+        <v>1.09245</v>
       </c>
       <c r="C63">
-        <v>1.08153</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45344.5</v>
+        <v>45364</v>
       </c>
       <c r="B64">
-        <v>1.08521</v>
+        <v>1.09229</v>
       </c>
       <c r="C64">
-        <v>1.08153</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45344.66666666666</v>
+        <v>45364.16666666666</v>
       </c>
       <c r="B65">
-        <v>1.08225</v>
+        <v>1.09276</v>
       </c>
       <c r="C65">
-        <v>1.08153</v>
+        <v>9727</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45344.83333333334</v>
+        <v>45364.33333333334</v>
       </c>
       <c r="B66">
-        <v>1.08193</v>
+        <v>1.09225</v>
       </c>
       <c r="C66">
-        <v>1.08153</v>
+        <v>18908</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45345</v>
+        <v>45364.5</v>
       </c>
       <c r="B67">
-        <v>1.08216</v>
+        <v>1.09363</v>
       </c>
       <c r="C67">
-        <v>1.08153</v>
+        <v>24146</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45345.16666666666</v>
+        <v>45364.66666666666</v>
       </c>
       <c r="B68">
-        <v>1.0826</v>
+        <v>1.09561</v>
       </c>
       <c r="C68">
-        <v>1.08216</v>
+        <v>25566</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45345.33333333334</v>
+        <v>45364.83333333334</v>
       </c>
       <c r="B69">
-        <v>1.08218</v>
+        <v>1.0947</v>
       </c>
       <c r="C69">
-        <v>1.08216</v>
+        <v>9967</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45345.5</v>
+        <v>45365</v>
       </c>
       <c r="B70">
-        <v>1.08164</v>
+        <v>1.09479</v>
       </c>
       <c r="C70">
-        <v>1.08216</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45345.66666666666</v>
+        <v>45365.16666666666</v>
       </c>
       <c r="B71">
-        <v>1.08311</v>
+        <v>1.09387</v>
       </c>
       <c r="C71">
-        <v>1.08216</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45345.83333333334</v>
+        <v>45365.33333333334</v>
       </c>
       <c r="B72">
-        <v>1.08239</v>
+        <v>1.09408</v>
       </c>
       <c r="C72">
-        <v>1.08216</v>
+        <v>19531</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45346</v>
+        <v>45365.5</v>
       </c>
       <c r="B73">
-        <v>1.08189</v>
+        <v>1.09112</v>
       </c>
       <c r="C73">
-        <v>1.08216</v>
+        <v>28511</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45348.16666666666</v>
+        <v>45365.66666666666</v>
       </c>
       <c r="B74">
-        <v>1.08154</v>
+        <v>1.08855</v>
       </c>
       <c r="C74">
-        <v>1.08189</v>
+        <v>27798</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45348.33333333334</v>
+        <v>45365.83333333334</v>
       </c>
       <c r="B75">
-        <v>1.08222</v>
+        <v>1.08826</v>
       </c>
       <c r="C75">
-        <v>1.08189</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45348.5</v>
+        <v>45366</v>
       </c>
       <c r="B76">
-        <v>1.08391</v>
+        <v>1.08761</v>
       </c>
       <c r="C76">
-        <v>1.08189</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45348.66666666666</v>
+        <v>45366.16666666666</v>
       </c>
       <c r="B77">
-        <v>1.08571</v>
+        <v>1.0876</v>
       </c>
       <c r="C77">
-        <v>1.08189</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45348.83333333334</v>
+        <v>45366.33333333334</v>
       </c>
       <c r="B78">
-        <v>1.08443</v>
+        <v>1.08976</v>
       </c>
       <c r="C78">
-        <v>1.08189</v>
+        <v>18593</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45349</v>
+        <v>45366.5</v>
       </c>
       <c r="B79">
-        <v>1.08489</v>
+        <v>1.08854</v>
       </c>
       <c r="C79">
-        <v>1.08189</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45349.16666666666</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="B80">
-        <v>1.0849</v>
+        <v>1.08829</v>
       </c>
       <c r="C80">
-        <v>1.08489</v>
+        <v>22615</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45349.33333333334</v>
+        <v>45366.83333333334</v>
       </c>
       <c r="B81">
-        <v>1.08511</v>
+        <v>1.0888</v>
       </c>
       <c r="C81">
-        <v>1.08489</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45349.5</v>
+        <v>45369</v>
       </c>
       <c r="B82">
-        <v>1.0852</v>
+        <v>1.08882</v>
       </c>
       <c r="C82">
-        <v>1.08489</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45349.66666666666</v>
+        <v>45369.16666666666</v>
       </c>
       <c r="B83">
-        <v>1.0847</v>
+        <v>1.08861</v>
       </c>
       <c r="C83">
-        <v>1.08489</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45349.83333333334</v>
+        <v>45369.33333333334</v>
       </c>
       <c r="B84">
-        <v>1.08499</v>
+        <v>1.08986</v>
       </c>
       <c r="C84">
-        <v>1.08489</v>
+        <v>16461</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45350</v>
+        <v>45369.5</v>
       </c>
       <c r="B85">
-        <v>1.08429</v>
+        <v>1.08881</v>
       </c>
       <c r="C85">
-        <v>1.08489</v>
+        <v>20145</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45350.16666666666</v>
+        <v>45369.66666666666</v>
       </c>
       <c r="B86">
-        <v>1.08384</v>
+        <v>1.08677</v>
       </c>
       <c r="C86">
-        <v>1.08429</v>
+        <v>21419</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45350.33333333334</v>
+        <v>45369.83333333334</v>
       </c>
       <c r="B87">
-        <v>1.0826</v>
+        <v>1.08717</v>
       </c>
       <c r="C87">
-        <v>1.08429</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45350.5</v>
+        <v>45370</v>
       </c>
       <c r="B88">
-        <v>1.07991</v>
+        <v>1.08672</v>
       </c>
       <c r="C88">
-        <v>1.08429</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45350.66666666666</v>
+        <v>45370.16666666666</v>
       </c>
       <c r="B89">
-        <v>1.08271</v>
+        <v>1.08633</v>
       </c>
       <c r="C89">
-        <v>1.08429</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45350.83333333334</v>
+        <v>45370.33333333334</v>
       </c>
       <c r="B90">
-        <v>1.08374</v>
+        <v>1.08358</v>
       </c>
       <c r="C90">
-        <v>1.08429</v>
+        <v>22514</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45351</v>
+        <v>45370.5</v>
       </c>
       <c r="B91">
-        <v>1.08357</v>
+        <v>1.08534</v>
       </c>
       <c r="C91">
-        <v>1.08429</v>
+        <v>22515</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45351.16666666666</v>
+        <v>45370.66666666666</v>
       </c>
       <c r="B92">
-        <v>1.0828</v>
+        <v>1.08625</v>
       </c>
       <c r="C92">
-        <v>1.08357</v>
+        <v>20863</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45351.33333333334</v>
+        <v>45370.83333333334</v>
       </c>
       <c r="B93">
-        <v>1.08349</v>
+        <v>1.08645</v>
       </c>
       <c r="C93">
-        <v>1.08357</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45351.5</v>
+        <v>45371</v>
       </c>
       <c r="B94">
-        <v>1.08499</v>
+        <v>1.08632</v>
       </c>
       <c r="C94">
-        <v>1.08357</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45351.66666666666</v>
+        <v>45371.16666666666</v>
       </c>
       <c r="B95">
-        <v>1.08371</v>
+        <v>1.08651</v>
       </c>
       <c r="C95">
-        <v>1.08357</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45351.83333333334</v>
+        <v>45371.33333333334</v>
       </c>
       <c r="B96">
-        <v>1.07991</v>
+        <v>1.08382</v>
       </c>
       <c r="C96">
-        <v>1.08357</v>
+        <v>19625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45352</v>
+        <v>45371.5</v>
       </c>
       <c r="B97">
-        <v>1.08024</v>
+        <v>1.08438</v>
       </c>
       <c r="C97">
-        <v>1.08357</v>
+        <v>17927</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45352.16666666666</v>
+        <v>45371.66666666666</v>
       </c>
       <c r="B98">
-        <v>1.08205</v>
+        <v>1.08637</v>
       </c>
       <c r="C98">
-        <v>1.08024</v>
+        <v>16054</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45352.33333333334</v>
+        <v>45371.83333333334</v>
       </c>
       <c r="B99">
-        <v>1.08111</v>
+        <v>1.0919</v>
       </c>
       <c r="C99">
-        <v>1.08024</v>
+        <v>29113</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45352.5</v>
+        <v>45372</v>
       </c>
       <c r="B100">
-        <v>1.08146</v>
+        <v>1.09343</v>
       </c>
       <c r="C100">
-        <v>1.08024</v>
+        <v>11436</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45352.66666666666</v>
+        <v>45372.16666666666</v>
       </c>
       <c r="B101">
-        <v>1.0812</v>
+        <v>1.09307</v>
       </c>
       <c r="C101">
-        <v>1.08024</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45352.83333333334</v>
+        <v>45372.33333333334</v>
       </c>
       <c r="B102">
-        <v>1.08367</v>
+        <v>1.09121</v>
       </c>
       <c r="C102">
-        <v>1.08024</v>
+        <v>25104</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45353</v>
+        <v>45372.5</v>
       </c>
       <c r="B103">
-        <v>1.08378</v>
+        <v>1.08852</v>
       </c>
       <c r="C103">
-        <v>1.08024</v>
+        <v>28312</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>45355.16666666666</v>
+        <v>45372.66666666666</v>
       </c>
       <c r="B104">
-        <v>1.08392</v>
+        <v>1.08569</v>
       </c>
       <c r="C104">
-        <v>1.08378</v>
+        <v>27382</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>45355.33333333334</v>
+        <v>45372.83333333334</v>
       </c>
       <c r="B105">
-        <v>1.08434</v>
+        <v>1.08598</v>
       </c>
       <c r="C105">
-        <v>1.08378</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>45355.5</v>
+        <v>45373</v>
       </c>
       <c r="B106">
-        <v>1.08484</v>
+        <v>1.08495</v>
       </c>
       <c r="C106">
-        <v>1.08378</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>45355.66666666666</v>
+        <v>45373.16666666666</v>
       </c>
       <c r="B107">
-        <v>1.08479</v>
+        <v>1.08406</v>
       </c>
       <c r="C107">
-        <v>1.08378</v>
+        <v>10506</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>45355.83333333334</v>
+        <v>45373.33333333334</v>
       </c>
       <c r="B108">
-        <v>1.0857</v>
+        <v>1.08153</v>
       </c>
       <c r="C108">
-        <v>1.08378</v>
+        <v>23524</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>45356</v>
+        <v>45373.5</v>
       </c>
       <c r="B109">
-        <v>1.08539</v>
+        <v>1.08287</v>
       </c>
       <c r="C109">
-        <v>1.08378</v>
+        <v>21844</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>45356.16666666666</v>
+        <v>45373.66666666666</v>
       </c>
       <c r="B110">
-        <v>1.08485</v>
+        <v>1.0805</v>
       </c>
       <c r="C110">
-        <v>1.08539</v>
+        <v>17863</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>45356.33333333334</v>
+        <v>45373.83333333334</v>
       </c>
       <c r="B111">
-        <v>1.08519</v>
+        <v>1.08068</v>
       </c>
       <c r="C111">
-        <v>1.08539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>45356.5</v>
+        <v>45376</v>
       </c>
       <c r="B112">
-        <v>1.08506</v>
+        <v>1.08159</v>
       </c>
       <c r="C112">
-        <v>1.08539</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>45356.66666666666</v>
+        <v>45376.16666666666</v>
       </c>
       <c r="B113">
-        <v>1.08454</v>
+        <v>1.08212</v>
       </c>
       <c r="C113">
-        <v>1.08539</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>45356.83333333334</v>
+        <v>45376.33333333334</v>
       </c>
       <c r="B114">
-        <v>1.0859</v>
+        <v>1.08169</v>
       </c>
       <c r="C114">
-        <v>1.08539</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>45357</v>
+        <v>45376.5</v>
       </c>
       <c r="B115">
-        <v>1.08545</v>
+        <v>1.08339</v>
       </c>
       <c r="C115">
-        <v>1.08539</v>
+        <v>19506</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>45357.16666666666</v>
+        <v>45376.66666666666</v>
       </c>
       <c r="B116">
-        <v>1.08429</v>
+        <v>1.08355</v>
       </c>
       <c r="C116">
-        <v>1.08545</v>
+        <v>16842</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>45357.33333333334</v>
+        <v>45376.83333333334</v>
       </c>
       <c r="B117">
-        <v>1.08541</v>
+        <v>1.08345</v>
       </c>
       <c r="C117">
-        <v>1.08545</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>45357.5</v>
+        <v>45377</v>
       </c>
       <c r="B118">
-        <v>1.08757</v>
+        <v>1.08395</v>
       </c>
       <c r="C118">
-        <v>1.08545</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>45357.66666666666</v>
+        <v>45377.16666666666</v>
       </c>
       <c r="B119">
-        <v>1.08841</v>
+        <v>1.08461</v>
       </c>
       <c r="C119">
-        <v>1.08545</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>45357.83333333334</v>
+        <v>45377.33333333334</v>
       </c>
       <c r="B120">
-        <v>1.09015</v>
+        <v>1.08526</v>
       </c>
       <c r="C120">
-        <v>1.08545</v>
+        <v>21426</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>45358</v>
+        <v>45377.5</v>
       </c>
       <c r="B121">
-        <v>1.0896</v>
+        <v>1.08521</v>
       </c>
       <c r="C121">
-        <v>1.08545</v>
+        <v>23941</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>45358.16666666666</v>
+        <v>45377.66666666666</v>
       </c>
       <c r="B122">
-        <v>1.08969</v>
+        <v>1.08295</v>
       </c>
       <c r="C122">
-        <v>1.0896</v>
+        <v>20683</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>45358.33333333334</v>
+        <v>45377.83333333334</v>
       </c>
       <c r="B123">
-        <v>1.08994</v>
+        <v>1.08297</v>
       </c>
       <c r="C123">
-        <v>1.0896</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>45358.5</v>
+        <v>45378</v>
       </c>
       <c r="B124">
-        <v>1.09008</v>
+        <v>1.08225</v>
       </c>
       <c r="C124">
-        <v>1.0896</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>45358.66666666666</v>
+        <v>45378.16666666666</v>
       </c>
       <c r="B125">
-        <v>1.08714</v>
+        <v>1.08253</v>
       </c>
       <c r="C125">
-        <v>1.0896</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>45358.83333333334</v>
+        <v>45378.33333333334</v>
       </c>
       <c r="B126">
-        <v>1.09361</v>
+        <v>1.0827</v>
       </c>
       <c r="C126">
-        <v>1.0896</v>
+        <v>18816</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>45359</v>
+        <v>45378.5</v>
       </c>
       <c r="B127">
-        <v>1.0947</v>
+        <v>1.08158</v>
       </c>
       <c r="C127">
-        <v>1.0896</v>
+        <v>22025</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>45359.16666666666</v>
+        <v>45378.66666666666</v>
       </c>
       <c r="B128">
-        <v>1.09471</v>
+        <v>1.08183</v>
       </c>
       <c r="C128">
-        <v>1.0947</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>45359.33333333334</v>
+        <v>45378.83333333334</v>
       </c>
       <c r="B129">
-        <v>1.09455</v>
+        <v>1.08246</v>
       </c>
       <c r="C129">
-        <v>1.0947</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>45359.5</v>
+        <v>45379</v>
       </c>
       <c r="B130">
-        <v>1.09345</v>
+        <v>1.0817</v>
       </c>
       <c r="C130">
-        <v>1.0947</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>45359.66666666666</v>
+        <v>45379.16666666666</v>
       </c>
       <c r="B131">
-        <v>1.09572</v>
+        <v>1.08228</v>
       </c>
       <c r="C131">
-        <v>1.0947</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>45359.83333333334</v>
+        <v>45379.33333333334</v>
       </c>
       <c r="B132">
-        <v>1.09384</v>
+        <v>1.07746</v>
       </c>
       <c r="C132">
-        <v>1.0947</v>
+        <v>21099</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>45360</v>
+        <v>45379.5</v>
       </c>
       <c r="B133">
-        <v>1.09372</v>
+        <v>1.08117</v>
       </c>
       <c r="C133">
-        <v>1.0947</v>
+        <v>27033</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>45362.16666666666</v>
+        <v>45379.66666666666</v>
       </c>
       <c r="B134">
-        <v>1.09396</v>
+        <v>1.07953</v>
       </c>
       <c r="C134">
-        <v>1.09372</v>
+        <v>24712</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>45362.33333333334</v>
+        <v>45379.83333333334</v>
       </c>
       <c r="B135">
-        <v>1.09403</v>
+        <v>1.07871</v>
       </c>
       <c r="C135">
-        <v>1.09372</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>45362.5</v>
+        <v>45380</v>
       </c>
       <c r="B136">
-        <v>1.09336</v>
+        <v>1.07752</v>
       </c>
       <c r="C136">
-        <v>1.09372</v>
+        <v>13356</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>45362.66666666666</v>
+        <v>45380.16666666666</v>
       </c>
       <c r="B137">
-        <v>1.09189</v>
+        <v>1.07742</v>
       </c>
       <c r="C137">
-        <v>1.09372</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>45362.83333333334</v>
+        <v>45380.33333333334</v>
       </c>
       <c r="B138">
-        <v>1.09243</v>
+        <v>1.07816</v>
       </c>
       <c r="C138">
-        <v>1.09372</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>45363</v>
+        <v>45380.5</v>
       </c>
       <c r="B139">
-        <v>1.09239</v>
+        <v>1.07977</v>
       </c>
       <c r="C139">
-        <v>1.09372</v>
+        <v>18376</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>45363.16666666666</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="B140">
-        <v>1.09325</v>
+        <v>1.07878</v>
       </c>
       <c r="C140">
-        <v>1.09239</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>45363.33333333334</v>
+        <v>45380.83333333334</v>
       </c>
       <c r="B141">
-        <v>1.09374</v>
+        <v>1.07863</v>
       </c>
       <c r="C141">
-        <v>1.09239</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>45363.5</v>
+        <v>45383</v>
       </c>
       <c r="B142">
-        <v>1.09295</v>
+        <v>1.07904</v>
       </c>
       <c r="C142">
-        <v>1.09239</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>45363.66666666666</v>
+        <v>45383.16666666666</v>
       </c>
       <c r="B143">
-        <v>1.09099</v>
+        <v>1.07858</v>
       </c>
       <c r="C143">
-        <v>1.09239</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>45363.83333333334</v>
+        <v>45383.33333333334</v>
       </c>
       <c r="B144">
-        <v>1.09184</v>
+        <v>1.07889</v>
       </c>
       <c r="C144">
-        <v>1.09239</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>45364</v>
+        <v>45383.5</v>
       </c>
       <c r="B145">
-        <v>1.09245</v>
+        <v>1.07811</v>
       </c>
       <c r="C145">
-        <v>1.09239</v>
+        <v>14577</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>45364.16666666666</v>
+        <v>45383.66666666666</v>
       </c>
       <c r="B146">
-        <v>1.09229</v>
+        <v>1.07356</v>
       </c>
       <c r="C146">
-        <v>1.09245</v>
+        <v>26301</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>45364.33333333334</v>
+        <v>45383.83333333334</v>
       </c>
       <c r="B147">
-        <v>1.09276</v>
+        <v>1.07418</v>
       </c>
       <c r="C147">
-        <v>1.09245</v>
+        <v>10209</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>45364.5</v>
+        <v>45384</v>
       </c>
       <c r="B148">
-        <v>1.09225</v>
+        <v>1.07362</v>
       </c>
       <c r="C148">
-        <v>1.09245</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>45364.66666666666</v>
+        <v>45384.16666666666</v>
       </c>
       <c r="B149">
-        <v>1.09363</v>
+        <v>1.07322</v>
       </c>
       <c r="C149">
-        <v>1.09245</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>45364.83333333334</v>
+        <v>45384.33333333334</v>
       </c>
       <c r="B150">
-        <v>1.09561</v>
+        <v>1.07305</v>
       </c>
       <c r="C150">
-        <v>1.09245</v>
+        <v>19952</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>45365</v>
+        <v>45384.5</v>
       </c>
       <c r="B151">
-        <v>1.0947</v>
+        <v>1.07482</v>
       </c>
       <c r="C151">
-        <v>1.09245</v>
+        <v>21959</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>45365.16666666666</v>
+        <v>45384.66666666666</v>
       </c>
       <c r="B152">
-        <v>1.09479</v>
+        <v>1.07675</v>
       </c>
       <c r="C152">
-        <v>1.0947</v>
+        <v>27985</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>45365.33333333334</v>
+        <v>45384.83333333334</v>
       </c>
       <c r="B153">
-        <v>1.09387</v>
+        <v>1.07663</v>
       </c>
       <c r="C153">
-        <v>1.0947</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>45365.5</v>
+        <v>45385</v>
       </c>
       <c r="B154">
-        <v>1.09408</v>
+        <v>1.07678</v>
       </c>
       <c r="C154">
-        <v>1.0947</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>45365.66666666666</v>
+        <v>45385.16666666666</v>
       </c>
       <c r="B155">
-        <v>1.09112</v>
+        <v>1.07735</v>
       </c>
       <c r="C155">
-        <v>1.0947</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>45365.83333333334</v>
+        <v>45385.33333333334</v>
       </c>
       <c r="B156">
-        <v>1.08855</v>
+        <v>1.07706</v>
       </c>
       <c r="C156">
-        <v>1.0947</v>
+        <v>15443</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>45366</v>
+        <v>45385.5</v>
       </c>
       <c r="B157">
-        <v>1.08826</v>
+        <v>1.0777</v>
       </c>
       <c r="C157">
-        <v>1.0947</v>
+        <v>21804</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>45366.16666666666</v>
+        <v>45385.66666666666</v>
       </c>
       <c r="B158">
-        <v>1.08761</v>
+        <v>1.08297</v>
       </c>
       <c r="C158">
-        <v>1.08826</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>45366.33333333334</v>
+        <v>45385.83333333334</v>
       </c>
       <c r="B159">
-        <v>1.0876</v>
+        <v>1.08345</v>
       </c>
       <c r="C159">
-        <v>1.08826</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>45366.5</v>
+        <v>45386</v>
       </c>
       <c r="B160">
-        <v>1.08976</v>
+        <v>1.08421</v>
       </c>
       <c r="C160">
-        <v>1.08826</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>45366.66666666666</v>
+        <v>45386.16666666666</v>
       </c>
       <c r="B161">
-        <v>1.08854</v>
+        <v>1.08417</v>
       </c>
       <c r="C161">
-        <v>1.08826</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>45366.83333333334</v>
+        <v>45386.33333333334</v>
       </c>
       <c r="B162">
-        <v>1.08829</v>
+        <v>1.08611</v>
       </c>
       <c r="C162">
-        <v>1.08826</v>
+        <v>20540</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>45367</v>
+        <v>45386.5</v>
       </c>
       <c r="B163">
-        <v>1.0888</v>
+        <v>1.08687</v>
       </c>
       <c r="C163">
-        <v>1.08826</v>
+        <v>19945</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>45369.16666666666</v>
+        <v>45386.66666666666</v>
       </c>
       <c r="B164">
-        <v>1.08882</v>
+        <v>1.0858</v>
       </c>
       <c r="C164">
-        <v>1.0888</v>
+        <v>20980</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>45369.33333333334</v>
+        <v>45386.83333333334</v>
       </c>
       <c r="B165">
-        <v>1.08861</v>
+        <v>1.08373</v>
       </c>
       <c r="C165">
-        <v>1.0888</v>
+        <v>19113</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>45369.5</v>
+        <v>45387</v>
       </c>
       <c r="B166">
-        <v>1.08986</v>
+        <v>1.08406</v>
       </c>
       <c r="C166">
-        <v>1.0888</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>45369.66666666666</v>
+        <v>45387.16666666666</v>
       </c>
       <c r="B167">
-        <v>1.08881</v>
+        <v>1.08254</v>
       </c>
       <c r="C167">
-        <v>1.0888</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>45369.83333333334</v>
+        <v>45387.33333333334</v>
       </c>
       <c r="B168">
-        <v>1.08677</v>
+        <v>1.08366</v>
       </c>
       <c r="C168">
-        <v>1.0888</v>
+        <v>16702</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>45370</v>
+        <v>45387.5</v>
       </c>
       <c r="B169">
-        <v>1.08717</v>
+        <v>1.08083</v>
       </c>
       <c r="C169">
-        <v>1.0888</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>45370.16666666666</v>
+        <v>45387.66666666666</v>
       </c>
       <c r="B170">
-        <v>1.08672</v>
+        <v>1.08348</v>
       </c>
       <c r="C170">
-        <v>1.08717</v>
+        <v>34576</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>45370.33333333334</v>
+        <v>45387.83333333334</v>
       </c>
       <c r="B171">
-        <v>1.08633</v>
+        <v>1.08351</v>
       </c>
       <c r="C171">
-        <v>1.08717</v>
+        <v>11992</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>45370.5</v>
+        <v>45390</v>
       </c>
       <c r="B172">
-        <v>1.08358</v>
+        <v>1.0826</v>
       </c>
       <c r="C172">
-        <v>1.08717</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>45370.66666666666</v>
+        <v>45390.16666666666</v>
       </c>
       <c r="B173">
-        <v>1.08534</v>
+        <v>1.08311</v>
       </c>
       <c r="C173">
-        <v>1.08717</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>45370.83333333334</v>
+        <v>45390.33333333334</v>
       </c>
       <c r="B174">
-        <v>1.08625</v>
+        <v>1.08227</v>
       </c>
       <c r="C174">
-        <v>1.08717</v>
+        <v>18869</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>45371</v>
+        <v>45390.5</v>
       </c>
       <c r="B175">
-        <v>1.08645</v>
+        <v>1.08334</v>
       </c>
       <c r="C175">
-        <v>1.08717</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>45371.16666666666</v>
+        <v>45390.66666666666</v>
       </c>
       <c r="B176">
-        <v>1.08632</v>
+        <v>1.08493</v>
       </c>
       <c r="C176">
-        <v>1.08645</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>45371.33333333334</v>
+        <v>45390.83333333334</v>
       </c>
       <c r="B177">
-        <v>1.08651</v>
+        <v>1.0857</v>
       </c>
       <c r="C177">
-        <v>1.08645</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>45371.5</v>
+        <v>45391</v>
       </c>
       <c r="B178">
-        <v>1.08382</v>
+        <v>1.08577</v>
       </c>
       <c r="C178">
-        <v>1.08645</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>45371.66666666666</v>
+        <v>45391.16666666666</v>
       </c>
       <c r="B179">
-        <v>1.08438</v>
+        <v>1.08555</v>
       </c>
       <c r="C179">
-        <v>1.08645</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>45371.83333333334</v>
+        <v>45391.33333333334</v>
       </c>
       <c r="B180">
-        <v>1.08637</v>
+        <v>1.08565</v>
       </c>
       <c r="C180">
-        <v>1.08645</v>
+        <v>15572</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>45372</v>
+        <v>45391.5</v>
       </c>
       <c r="B181">
-        <v>1.0919</v>
+        <v>1.08798</v>
       </c>
       <c r="C181">
-        <v>1.08645</v>
+        <v>21687</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>45372.16666666666</v>
+        <v>45391.66666666666</v>
       </c>
       <c r="B182">
-        <v>1.09343</v>
+        <v>1.08538</v>
       </c>
       <c r="C182">
-        <v>1.0919</v>
+        <v>26879</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>45372.33333333334</v>
+        <v>45391.83333333334</v>
       </c>
       <c r="B183">
-        <v>1.09307</v>
+        <v>1.08567</v>
       </c>
       <c r="C183">
-        <v>1.0919</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>45372.5</v>
+        <v>45392</v>
       </c>
       <c r="B184">
-        <v>1.09121</v>
+        <v>1.08562</v>
       </c>
       <c r="C184">
-        <v>1.0919</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>45372.66666666666</v>
+        <v>45392.16666666666</v>
       </c>
       <c r="B185">
-        <v>1.08852</v>
+        <v>1.08518</v>
       </c>
       <c r="C185">
-        <v>1.0919</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>45372.83333333334</v>
+        <v>45392.33333333334</v>
       </c>
       <c r="B186">
-        <v>1.08569</v>
+        <v>1.08595</v>
       </c>
       <c r="C186">
-        <v>1.0919</v>
+        <v>14392</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>45373</v>
+        <v>45392.5</v>
       </c>
       <c r="B187">
-        <v>1.08598</v>
+        <v>1.078</v>
       </c>
       <c r="C187">
-        <v>1.0919</v>
+        <v>22350</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>45373.16666666666</v>
+        <v>45392.66666666666</v>
       </c>
       <c r="B188">
-        <v>1.08495</v>
+        <v>1.07351</v>
       </c>
       <c r="C188">
-        <v>1.08598</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>45373.33333333334</v>
+        <v>45392.83333333334</v>
       </c>
       <c r="B189">
-        <v>1.08406</v>
+        <v>1.07396</v>
       </c>
       <c r="C189">
-        <v>1.08598</v>
+        <v>21128</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>45373.5</v>
+        <v>45393</v>
       </c>
       <c r="B190">
-        <v>1.08153</v>
+        <v>1.07415</v>
       </c>
       <c r="C190">
-        <v>1.08598</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>45373.66666666666</v>
+        <v>45393.16666666666</v>
       </c>
       <c r="B191">
-        <v>1.08287</v>
+        <v>1.07452</v>
       </c>
       <c r="C191">
-        <v>1.08598</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>45373.83333333334</v>
+        <v>45393.33333333334</v>
       </c>
       <c r="B192">
-        <v>1.0805</v>
+        <v>1.07397</v>
       </c>
       <c r="C192">
-        <v>1.08598</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>45374</v>
+        <v>45393.5</v>
       </c>
       <c r="B193">
-        <v>1.08068</v>
+        <v>1.07408</v>
       </c>
       <c r="C193">
-        <v>1.08598</v>
+        <v>29299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45393.66666666666</v>
+      </c>
+      <c r="B194">
+        <v>1.07167</v>
+      </c>
+      <c r="C194">
+        <v>36957</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45393.83333333334</v>
+      </c>
+      <c r="B195">
+        <v>1.07238</v>
+      </c>
+      <c r="C195">
+        <v>14170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B196">
+        <v>1.07249</v>
+      </c>
+      <c r="C196">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45394.16666666666</v>
+      </c>
+      <c r="B197">
+        <v>1.07101</v>
+      </c>
+      <c r="C197">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45394.33333333334</v>
+      </c>
+      <c r="B198">
+        <v>1.06703</v>
+      </c>
+      <c r="C198">
+        <v>21387</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45394.5</v>
+      </c>
+      <c r="B199">
+        <v>1.06375</v>
+      </c>
+      <c r="C199">
+        <v>24940</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45394.66666666666</v>
+      </c>
+      <c r="B200">
+        <v>1.06409</v>
+      </c>
+      <c r="C200">
+        <v>29733</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45394.83333333334</v>
+      </c>
+      <c r="B201">
+        <v>1.06394</v>
+      </c>
+      <c r="C201">
+        <v>12890</v>
       </c>
     </row>
   </sheetData>
